--- a/FactsTeam.xlsx
+++ b/FactsTeam.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="FactsTeamCoordinates" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="FactsTeamStrenghtCoordinates" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="FactsTeam" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="FactsTeamCoordinates" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="FactsTeamStrenghtCoordinates" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="FactsTeamDistances" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,747 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AI6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Initials</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Achiever</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Arranger</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Belief</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Consistency</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Deliberative</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Discipline</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Focus</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Responsibility</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Restorative</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Activator</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Command</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Communication</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Competition</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Maximizer</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Self-Assurance</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Significance</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Woo</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Adaptability</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Connectedness</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Developer</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Empathy</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Harmony</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Includer</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Individualization</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Positivity</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Relator</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Analytical</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Context</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Futuristic</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Ideation</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Input</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Intellection</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Learner</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Strategic</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>V.K.</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34</v>
+      </c>
+      <c r="E2" t="n">
+        <v>26</v>
+      </c>
+      <c r="F2" t="n">
+        <v>11</v>
+      </c>
+      <c r="G2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2" t="n">
+        <v>19</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>7</v>
+      </c>
+      <c r="L2" t="n">
+        <v>12</v>
+      </c>
+      <c r="M2" t="n">
+        <v>21</v>
+      </c>
+      <c r="N2" t="n">
+        <v>29</v>
+      </c>
+      <c r="O2" t="n">
+        <v>32</v>
+      </c>
+      <c r="P2" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>23</v>
+      </c>
+      <c r="R2" t="n">
+        <v>24</v>
+      </c>
+      <c r="S2" t="n">
+        <v>18</v>
+      </c>
+      <c r="T2" t="n">
+        <v>33</v>
+      </c>
+      <c r="U2" t="n">
+        <v>14</v>
+      </c>
+      <c r="V2" t="n">
+        <v>22</v>
+      </c>
+      <c r="W2" t="n">
+        <v>27</v>
+      </c>
+      <c r="X2" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>L.O.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3" t="n">
+        <v>25</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G3" t="n">
+        <v>27</v>
+      </c>
+      <c r="H3" t="n">
+        <v>18</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" t="n">
+        <v>32</v>
+      </c>
+      <c r="K3" t="n">
+        <v>7</v>
+      </c>
+      <c r="L3" t="n">
+        <v>22</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="n">
+        <v>31</v>
+      </c>
+      <c r="O3" t="n">
+        <v>14</v>
+      </c>
+      <c r="P3" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>15</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>29</v>
+      </c>
+      <c r="T3" t="n">
+        <v>12</v>
+      </c>
+      <c r="U3" t="n">
+        <v>24</v>
+      </c>
+      <c r="V3" t="n">
+        <v>28</v>
+      </c>
+      <c r="W3" t="n">
+        <v>34</v>
+      </c>
+      <c r="X3" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>M.K.</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>16</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13</v>
+      </c>
+      <c r="J4" t="n">
+        <v>17</v>
+      </c>
+      <c r="K4" t="n">
+        <v>30</v>
+      </c>
+      <c r="L4" t="n">
+        <v>26</v>
+      </c>
+      <c r="M4" t="n">
+        <v>32</v>
+      </c>
+      <c r="N4" t="n">
+        <v>33</v>
+      </c>
+      <c r="O4" t="n">
+        <v>22</v>
+      </c>
+      <c r="P4" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>24</v>
+      </c>
+      <c r="R4" t="n">
+        <v>34</v>
+      </c>
+      <c r="S4" t="n">
+        <v>31</v>
+      </c>
+      <c r="T4" t="n">
+        <v>20</v>
+      </c>
+      <c r="U4" t="n">
+        <v>27</v>
+      </c>
+      <c r="V4" t="n">
+        <v>21</v>
+      </c>
+      <c r="W4" t="n">
+        <v>3</v>
+      </c>
+      <c r="X4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>A.S.</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>34</v>
+      </c>
+      <c r="E5" t="n">
+        <v>29</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>19</v>
+      </c>
+      <c r="H5" t="n">
+        <v>25</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>32</v>
+      </c>
+      <c r="K5" t="n">
+        <v>27</v>
+      </c>
+      <c r="L5" t="n">
+        <v>18</v>
+      </c>
+      <c r="M5" t="n">
+        <v>24</v>
+      </c>
+      <c r="N5" t="n">
+        <v>33</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>30</v>
+      </c>
+      <c r="R5" t="n">
+        <v>31</v>
+      </c>
+      <c r="S5" t="n">
+        <v>11</v>
+      </c>
+      <c r="T5" t="n">
+        <v>23</v>
+      </c>
+      <c r="U5" t="n">
+        <v>16</v>
+      </c>
+      <c r="V5" t="n">
+        <v>14</v>
+      </c>
+      <c r="W5" t="n">
+        <v>21</v>
+      </c>
+      <c r="X5" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>M.Sz.</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E6" t="n">
+        <v>13</v>
+      </c>
+      <c r="F6" t="n">
+        <v>21</v>
+      </c>
+      <c r="G6" t="n">
+        <v>16</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8</v>
+      </c>
+      <c r="K6" t="n">
+        <v>30</v>
+      </c>
+      <c r="L6" t="n">
+        <v>33</v>
+      </c>
+      <c r="M6" t="n">
+        <v>25</v>
+      </c>
+      <c r="N6" t="n">
+        <v>34</v>
+      </c>
+      <c r="O6" t="n">
+        <v>20</v>
+      </c>
+      <c r="P6" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>22</v>
+      </c>
+      <c r="R6" t="n">
+        <v>19</v>
+      </c>
+      <c r="S6" t="n">
+        <v>32</v>
+      </c>
+      <c r="T6" t="n">
+        <v>4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>11</v>
+      </c>
+      <c r="V6" t="n">
+        <v>24</v>
+      </c>
+      <c r="W6" t="n">
+        <v>23</v>
+      </c>
+      <c r="X6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>31</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -442,12 +1185,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>X_dimension</t>
+          <t>NormX_dimension</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Y_dimension</t>
+          <t>NormY_dimension</t>
         </is>
       </c>
     </row>
@@ -521,7 +1264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -536,14 +1279,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CliftonStrength</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>X_dimension</t>
+          <t>NormX_dimension</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Y_dimension</t>
+          <t>NormY_dimension</t>
         </is>
       </c>
     </row>
@@ -987,6 +1735,417 @@
       </c>
       <c r="C35" t="n">
         <v>-0.189641867254825</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PointA</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PointB</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NormDistance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>V.K.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>V.K.</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>V.K.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>L.O.</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2.253309555685218</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>V.K.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>M.K.</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2.304278395019326</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>V.K.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>A.S.</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8881045621205576</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>V.K.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>M.Sz.</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2.480664369937599</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>L.O.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>V.K.</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2.253309555685218</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>L.O.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>L.O.</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>L.O.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>M.K.</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2.725275039527435</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L.O.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>A.S.</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2.26987221866949</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L.O.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>M.Sz.</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1.791984581042345</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>M.K.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>V.K.</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2.304278395019326</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>M.K.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>L.O.</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2.725275039527435</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>M.K.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>M.K.</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>M.K.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>A.S.</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1.42483955554591</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>M.K.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>M.Sz.</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1.221252344295818</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A.S.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>V.K.</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8881045621205576</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A.S.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>L.O.</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2.26987221866949</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A.S.</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>M.K.</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1.42483955554591</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A.S.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>A.S.</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A.S.</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>M.Sz.</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1.832537579046869</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>M.Sz.</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>V.K.</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2.480664369937599</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>M.Sz.</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>L.O.</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1.791984581042345</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>M.Sz.</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>M.K.</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1.221252344295818</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>M.Sz.</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>A.S.</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1.832537579046869</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>M.Sz.</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>M.Sz.</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/FactsTeam.xlsx
+++ b/FactsTeam.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="FactsTeam" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="FactsTeamCoordinates" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="FactsTeamStrenghtCoordinates" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="FactsTeamStrengthCoordinates" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="FactsTeamDistances" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.5121548972100373</v>
+        <v>-0.5121548972100354</v>
       </c>
       <c r="C2" t="n">
         <v>-1.266334482777066</v>
@@ -1217,7 +1217,7 @@
         <v>1.558926829492615</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.3786270788084645</v>
+        <v>-0.378627078808463</v>
       </c>
     </row>
     <row r="4">
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7785931901737213</v>
+        <v>-0.778593190173722</v>
       </c>
       <c r="C4" t="n">
         <v>1.022488262171839</v>
@@ -1240,10 +1240,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7108376813716063</v>
+        <v>-0.7108376813716071</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4007393900592552</v>
+        <v>-0.4007393900592555</v>
       </c>
     </row>
     <row r="6">
@@ -1253,10 +1253,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4426589392627507</v>
+        <v>0.4426589392627494</v>
       </c>
       <c r="C6" t="n">
-        <v>1.023212689472945</v>
+        <v>1.023212689472946</v>
       </c>
     </row>
   </sheetData>
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1404579959324175</v>
+        <v>0.1404579959324178</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.06296204157326378</v>
+        <v>-0.06296204157326374</v>
       </c>
     </row>
     <row r="3">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2160306344510268</v>
+        <v>0.216030634451027</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2780446340235724</v>
+        <v>-0.2780446340235721</v>
       </c>
     </row>
     <row r="4">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6736531955379648</v>
+        <v>0.6736531955379649</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4020502516582783</v>
+        <v>0.402050251658279</v>
       </c>
     </row>
     <row r="5">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08299784990676454</v>
+        <v>-0.08299784990676473</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5685263358059941</v>
+        <v>0.568526335805994</v>
       </c>
     </row>
     <row r="6">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.5429259309546158</v>
+        <v>-0.5429259309546161</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1355775777483342</v>
+        <v>-0.1355775777483348</v>
       </c>
     </row>
     <row r="7">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2599522420118264</v>
+        <v>-0.2599522420118272</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5838789366517866</v>
+        <v>0.5838789366517865</v>
       </c>
     </row>
     <row r="8">
@@ -1380,7 +1380,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04642521678477943</v>
+        <v>0.04642521678477946</v>
       </c>
       <c r="C8" t="n">
         <v>0.3320393229858796</v>
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.06547239695809053</v>
+        <v>0.06547239695809008</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1778235769504112</v>
+        <v>0.1778235769504114</v>
       </c>
     </row>
     <row r="10">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2347095424163825</v>
+        <v>-0.2347095424163817</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05107103028800162</v>
+        <v>0.05107103028800091</v>
       </c>
     </row>
     <row r="11">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3428867675253282</v>
+        <v>0.3428867675253294</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.6658981039355633</v>
+        <v>-0.665898103935563</v>
       </c>
     </row>
     <row r="12">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1633172434855077</v>
+        <v>-0.1633172434855073</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.5431583072290727</v>
+        <v>-0.5431583072290728</v>
       </c>
     </row>
     <row r="13">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5733104234423103</v>
+        <v>0.5733104234423109</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.363465182063338</v>
+        <v>-0.3634651820633373</v>
       </c>
     </row>
     <row r="14">
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02174669825177179</v>
+        <v>0.02174669825177218</v>
       </c>
       <c r="C14" t="n">
         <v>-0.2593782122903434</v>
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.09491487681510617</v>
+        <v>0.09491487681510527</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07888867568183999</v>
+        <v>0.07888867568184044</v>
       </c>
     </row>
     <row r="16">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04440010820785446</v>
+        <v>0.04440010820785449</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.03769825069040858</v>
+        <v>-0.03769825069040853</v>
       </c>
     </row>
     <row r="17">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3213002188838562</v>
+        <v>0.3213002188838567</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.004192000540910827</v>
+        <v>-0.004192000540910577</v>
       </c>
     </row>
     <row r="18">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8214946496182705</v>
+        <v>0.8214946496182711</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1935404225693698</v>
+        <v>-0.1935404225693691</v>
       </c>
     </row>
     <row r="19">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.3329125083334214</v>
+        <v>-0.3329125083334215</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.524339781267892</v>
+        <v>-0.5243397812678923</v>
       </c>
     </row>
     <row r="20">
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4182108724443095</v>
+        <v>0.4182108724443092</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4994300326561195</v>
+        <v>0.49943003265612</v>
       </c>
     </row>
     <row r="21">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.04010153286582594</v>
+        <v>-0.04010153286582585</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.09076248661402896</v>
+        <v>-0.09076248661402905</v>
       </c>
     </row>
     <row r="22">
@@ -1562,10 +1562,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.2763877744222099</v>
+        <v>-0.2763877744222104</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.03536838597802391</v>
+        <v>-0.03536838597802409</v>
       </c>
     </row>
     <row r="23">
@@ -1575,10 +1575,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.5270359878995038</v>
+        <v>-0.5270359878995045</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5177167031103366</v>
+        <v>0.5177167031103361</v>
       </c>
     </row>
     <row r="24">
@@ -1588,10 +1588,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2661327712993929</v>
+        <v>0.2661327712993926</v>
       </c>
       <c r="C24" t="n">
-        <v>0.619606112725723</v>
+        <v>0.6196061127257232</v>
       </c>
     </row>
     <row r="25">
@@ -1604,7 +1604,7 @@
         <v>-0.1387795635830611</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.01317307685949739</v>
+        <v>-0.01317307685949762</v>
       </c>
     </row>
     <row r="26">
@@ -1617,7 +1617,7 @@
         <v>0.361216628514286</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.1826720207324091</v>
+        <v>-0.1826720207324085</v>
       </c>
     </row>
     <row r="27">
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.638811887122125</v>
+        <v>-0.6388118871221253</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.2331765818307543</v>
+        <v>-0.2331765818307548</v>
       </c>
     </row>
     <row r="28">
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.321938491990974</v>
+        <v>-0.3219384919909748</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4877152056334391</v>
+        <v>0.4877152056334388</v>
       </c>
     </row>
     <row r="29">
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.08255695118041709</v>
+        <v>-0.08255695118041646</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.2151669825786204</v>
+        <v>-0.2151669825786207</v>
       </c>
     </row>
     <row r="30">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.1562392549044106</v>
+        <v>-0.1562392549044101</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.3581997684046033</v>
+        <v>-0.3581997684046036</v>
       </c>
     </row>
     <row r="31">
@@ -1682,7 +1682,7 @@
         <v>-0.4255823748703167</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.4001389860324254</v>
+        <v>-0.4001389860324259</v>
       </c>
     </row>
     <row r="32">
@@ -1692,10 +1692,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.002766164796289771</v>
+        <v>-0.002766164796289428</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.1211799898722856</v>
+        <v>-0.1211799898722857</v>
       </c>
     </row>
     <row r="33">
@@ -1705,10 +1705,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.3034038922187442</v>
+        <v>-0.3034038922187443</v>
       </c>
       <c r="C33" t="n">
-        <v>0.008769498477957396</v>
+        <v>0.008769498477957076</v>
       </c>
     </row>
     <row r="34">
@@ -1718,10 +1718,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.08294544552344713</v>
+        <v>0.08294544552344671</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2238867824415688</v>
+        <v>0.223886782441569</v>
       </c>
     </row>
     <row r="35">
@@ -1731,10 +1731,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3185721745408858</v>
+        <v>0.318572174540886</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.189641867254825</v>
+        <v>-0.1896418672548246</v>
       </c>
     </row>
   </sheetData>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.253309555685218</v>
+        <v>2.253309555685217</v>
       </c>
     </row>
     <row r="4">
@@ -1815,7 +1815,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.304278395019326</v>
+        <v>2.304278395019327</v>
       </c>
     </row>
     <row r="5">
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8881045621205576</v>
+        <v>0.8881045621205587</v>
       </c>
     </row>
     <row r="6">
@@ -1860,7 +1860,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.253309555685218</v>
+        <v>2.253309555685217</v>
       </c>
     </row>
     <row r="8">
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.725275039527435</v>
+        <v>2.725275039527434</v>
       </c>
     </row>
     <row r="10">
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.304278395019326</v>
+        <v>2.304278395019327</v>
       </c>
     </row>
     <row r="13">
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.725275039527435</v>
+        <v>2.725275039527434</v>
       </c>
     </row>
     <row r="14">
@@ -2010,7 +2010,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.8881045621205576</v>
+        <v>0.8881045621205587</v>
       </c>
     </row>
     <row r="18">

--- a/FactsTeam.xlsx
+++ b/FactsTeam.xlsx
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.5121548972100354</v>
+        <v>-0.5121548972100373</v>
       </c>
       <c r="C2" t="n">
         <v>-1.266334482777066</v>
@@ -1217,7 +1217,7 @@
         <v>1.558926829492615</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.378627078808463</v>
+        <v>-0.3786270788084645</v>
       </c>
     </row>
     <row r="4">
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.778593190173722</v>
+        <v>-0.7785931901737213</v>
       </c>
       <c r="C4" t="n">
         <v>1.022488262171839</v>
@@ -1240,10 +1240,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7108376813716071</v>
+        <v>-0.7108376813716063</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4007393900592555</v>
+        <v>-0.4007393900592552</v>
       </c>
     </row>
     <row r="6">
@@ -1253,10 +1253,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4426589392627494</v>
+        <v>0.4426589392627507</v>
       </c>
       <c r="C6" t="n">
-        <v>1.023212689472946</v>
+        <v>1.023212689472945</v>
       </c>
     </row>
   </sheetData>
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1404579959324178</v>
+        <v>0.1404579959324175</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.06296204157326374</v>
+        <v>-0.06296204157326378</v>
       </c>
     </row>
     <row r="3">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.216030634451027</v>
+        <v>0.2160306344510268</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2780446340235721</v>
+        <v>-0.2780446340235724</v>
       </c>
     </row>
     <row r="4">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6736531955379649</v>
+        <v>0.6736531955379648</v>
       </c>
       <c r="C4" t="n">
-        <v>0.402050251658279</v>
+        <v>0.4020502516582783</v>
       </c>
     </row>
     <row r="5">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08299784990676473</v>
+        <v>-0.08299784990676454</v>
       </c>
       <c r="C5" t="n">
-        <v>0.568526335805994</v>
+        <v>0.5685263358059941</v>
       </c>
     </row>
     <row r="6">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.5429259309546161</v>
+        <v>-0.5429259309546158</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1355775777483348</v>
+        <v>-0.1355775777483342</v>
       </c>
     </row>
     <row r="7">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2599522420118272</v>
+        <v>-0.2599522420118264</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5838789366517865</v>
+        <v>0.5838789366517866</v>
       </c>
     </row>
     <row r="8">
@@ -1380,7 +1380,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04642521678477946</v>
+        <v>0.04642521678477943</v>
       </c>
       <c r="C8" t="n">
         <v>0.3320393229858796</v>
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.06547239695809008</v>
+        <v>0.06547239695809053</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1778235769504114</v>
+        <v>0.1778235769504112</v>
       </c>
     </row>
     <row r="10">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2347095424163817</v>
+        <v>-0.2347095424163825</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05107103028800091</v>
+        <v>0.05107103028800162</v>
       </c>
     </row>
     <row r="11">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3428867675253294</v>
+        <v>0.3428867675253282</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.665898103935563</v>
+        <v>-0.6658981039355633</v>
       </c>
     </row>
     <row r="12">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1633172434855073</v>
+        <v>-0.1633172434855077</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.5431583072290728</v>
+        <v>-0.5431583072290727</v>
       </c>
     </row>
     <row r="13">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5733104234423109</v>
+        <v>0.5733104234423103</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.3634651820633373</v>
+        <v>-0.363465182063338</v>
       </c>
     </row>
     <row r="14">
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02174669825177218</v>
+        <v>0.02174669825177179</v>
       </c>
       <c r="C14" t="n">
         <v>-0.2593782122903434</v>
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.09491487681510527</v>
+        <v>0.09491487681510617</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07888867568184044</v>
+        <v>0.07888867568183999</v>
       </c>
     </row>
     <row r="16">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04440010820785449</v>
+        <v>0.04440010820785446</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.03769825069040853</v>
+        <v>-0.03769825069040858</v>
       </c>
     </row>
     <row r="17">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3213002188838567</v>
+        <v>0.3213002188838562</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.004192000540910577</v>
+        <v>-0.004192000540910827</v>
       </c>
     </row>
     <row r="18">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8214946496182711</v>
+        <v>0.8214946496182705</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1935404225693691</v>
+        <v>-0.1935404225693698</v>
       </c>
     </row>
     <row r="19">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.3329125083334215</v>
+        <v>-0.3329125083334214</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.5243397812678923</v>
+        <v>-0.524339781267892</v>
       </c>
     </row>
     <row r="20">
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4182108724443092</v>
+        <v>0.4182108724443095</v>
       </c>
       <c r="C20" t="n">
-        <v>0.49943003265612</v>
+        <v>0.4994300326561195</v>
       </c>
     </row>
     <row r="21">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.04010153286582585</v>
+        <v>-0.04010153286582594</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.09076248661402905</v>
+        <v>-0.09076248661402896</v>
       </c>
     </row>
     <row r="22">
@@ -1562,10 +1562,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.2763877744222104</v>
+        <v>-0.2763877744222099</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.03536838597802409</v>
+        <v>-0.03536838597802391</v>
       </c>
     </row>
     <row r="23">
@@ -1575,10 +1575,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.5270359878995045</v>
+        <v>-0.5270359878995038</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5177167031103361</v>
+        <v>0.5177167031103366</v>
       </c>
     </row>
     <row r="24">
@@ -1588,10 +1588,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2661327712993926</v>
+        <v>0.2661327712993929</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6196061127257232</v>
+        <v>0.619606112725723</v>
       </c>
     </row>
     <row r="25">
@@ -1604,7 +1604,7 @@
         <v>-0.1387795635830611</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.01317307685949762</v>
+        <v>-0.01317307685949739</v>
       </c>
     </row>
     <row r="26">
@@ -1617,7 +1617,7 @@
         <v>0.361216628514286</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.1826720207324085</v>
+        <v>-0.1826720207324091</v>
       </c>
     </row>
     <row r="27">
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.6388118871221253</v>
+        <v>-0.638811887122125</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.2331765818307548</v>
+        <v>-0.2331765818307543</v>
       </c>
     </row>
     <row r="28">
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.3219384919909748</v>
+        <v>-0.321938491990974</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4877152056334388</v>
+        <v>0.4877152056334391</v>
       </c>
     </row>
     <row r="29">
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.08255695118041646</v>
+        <v>-0.08255695118041709</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.2151669825786207</v>
+        <v>-0.2151669825786204</v>
       </c>
     </row>
     <row r="30">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.1562392549044101</v>
+        <v>-0.1562392549044106</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.3581997684046036</v>
+        <v>-0.3581997684046033</v>
       </c>
     </row>
     <row r="31">
@@ -1682,7 +1682,7 @@
         <v>-0.4255823748703167</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.4001389860324259</v>
+        <v>-0.4001389860324254</v>
       </c>
     </row>
     <row r="32">
@@ -1692,10 +1692,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.002766164796289428</v>
+        <v>-0.002766164796289771</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.1211799898722857</v>
+        <v>-0.1211799898722856</v>
       </c>
     </row>
     <row r="33">
@@ -1705,10 +1705,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.3034038922187443</v>
+        <v>-0.3034038922187442</v>
       </c>
       <c r="C33" t="n">
-        <v>0.008769498477957076</v>
+        <v>0.008769498477957396</v>
       </c>
     </row>
     <row r="34">
@@ -1718,10 +1718,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.08294544552344671</v>
+        <v>0.08294544552344713</v>
       </c>
       <c r="C34" t="n">
-        <v>0.223886782441569</v>
+        <v>0.2238867824415688</v>
       </c>
     </row>
     <row r="35">
@@ -1731,10 +1731,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.318572174540886</v>
+        <v>0.3185721745408858</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1896418672548246</v>
+        <v>-0.189641867254825</v>
       </c>
     </row>
   </sheetData>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.253309555685217</v>
+        <v>2.253309555685218</v>
       </c>
     </row>
     <row r="4">
@@ -1815,7 +1815,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.304278395019327</v>
+        <v>2.304278395019326</v>
       </c>
     </row>
     <row r="5">
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8881045621205587</v>
+        <v>0.8881045621205576</v>
       </c>
     </row>
     <row r="6">
@@ -1860,7 +1860,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.253309555685217</v>
+        <v>2.253309555685218</v>
       </c>
     </row>
     <row r="8">
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.725275039527434</v>
+        <v>2.725275039527435</v>
       </c>
     </row>
     <row r="10">
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.304278395019327</v>
+        <v>2.304278395019326</v>
       </c>
     </row>
     <row r="13">
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.725275039527434</v>
+        <v>2.725275039527435</v>
       </c>
     </row>
     <row r="14">
@@ -2010,7 +2010,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.8881045621205587</v>
+        <v>0.8881045621205576</v>
       </c>
     </row>
     <row r="18">
